--- a/data/view/time - コピー.xlsx
+++ b/data/view/time - コピー.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masay\OneDrive\ドキュメント\project_GALLERIA\研究\STUDY\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masay\OneDrive\ドキュメント\project_GALLERIA\研究\STUDY\data\view\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{D6FADFFC-7652-2446-8D7A-5D260C1E8E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9CB52640-FAF7-450C-889A-D3652D4FD9D4}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{D6FADFFC-7652-2446-8D7A-5D260C1E8E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{40E5B68B-015A-404F-9814-15C06591E8F7}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BAE43EFA-5163-2E41-8473-B88AC450AD00}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>二条城</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>ギオンコーナー</t>
-  </si>
-  <si>
-    <t>祇園</t>
   </si>
   <si>
     <t>八坂神社</t>
@@ -812,7 +809,7 @@
   <dimension ref="A1:Z31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -822,41 +819,41 @@
   <sheetData>
     <row r="1" spans="1:26" ht="30" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="12" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>0</v>
@@ -874,58 +871,58 @@
         <v>2</v>
       </c>
       <c r="H6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="J6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="K6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="L6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="M6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="N6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="O6" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>16</v>
       </c>
       <c r="P6" s="11" t="s">
         <v>3</v>
       </c>
       <c r="Q6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="R6" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="R6" s="11" t="s">
-        <v>18</v>
       </c>
       <c r="S6" s="11" t="s">
         <v>4</v>
       </c>
       <c r="T6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="U6" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="U6" s="11" t="s">
-        <v>20</v>
       </c>
       <c r="V6" s="11" t="s">
         <v>5</v>
       </c>
       <c r="W6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="X6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="X6" s="11" t="s">
-        <v>22</v>
-      </c>
       <c r="Y6" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z6" s="11" t="s">
         <v>6</v>
@@ -933,7 +930,7 @@
     </row>
     <row r="7" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1014,7 +1011,7 @@
     </row>
     <row r="8" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8">
         <v>41</v>
@@ -1094,7 +1091,7 @@
     </row>
     <row r="9" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9">
         <v>35</v>
@@ -1174,7 +1171,7 @@
     </row>
     <row r="10" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10">
         <v>58</v>
@@ -1254,7 +1251,7 @@
     </row>
     <row r="11" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11">
         <v>19</v>
@@ -1334,7 +1331,7 @@
     </row>
     <row r="12" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12">
         <v>59</v>
@@ -1414,7 +1411,7 @@
     </row>
     <row r="13" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13">
         <v>27</v>
@@ -1494,7 +1491,7 @@
     </row>
     <row r="14" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <v>22</v>
@@ -1574,7 +1571,7 @@
     </row>
     <row r="15" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15">
         <v>35</v>
@@ -1654,7 +1651,7 @@
     </row>
     <row r="16" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16">
         <v>41</v>
@@ -1734,7 +1731,7 @@
     </row>
     <row r="17" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17">
         <v>34</v>
@@ -1814,7 +1811,7 @@
     </row>
     <row r="18" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18">
         <v>27</v>
@@ -1894,7 +1891,7 @@
     </row>
     <row r="19" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19">
         <v>28</v>
@@ -1974,7 +1971,7 @@
     </row>
     <row r="20" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20">
         <v>64</v>
@@ -2054,7 +2051,7 @@
     </row>
     <row r="21" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21">
         <v>43</v>
@@ -2134,7 +2131,7 @@
     </row>
     <row r="22" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22">
         <v>39</v>
@@ -2214,7 +2211,7 @@
     </row>
     <row r="23" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23">
         <v>13</v>
@@ -2294,7 +2291,7 @@
     </row>
     <row r="24" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24">
         <v>45</v>
@@ -2374,7 +2371,7 @@
     </row>
     <row r="25" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25">
         <v>25</v>
@@ -2454,7 +2451,7 @@
     </row>
     <row r="26" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26">
         <v>33</v>
@@ -2534,7 +2531,7 @@
     </row>
     <row r="27" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27">
         <v>54</v>
@@ -2614,7 +2611,7 @@
     </row>
     <row r="28" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28">
         <v>29</v>
@@ -2694,7 +2691,7 @@
     </row>
     <row r="29" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29">
         <v>27</v>
@@ -2774,7 +2771,7 @@
     </row>
     <row r="30" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B30">
         <v>23</v>
@@ -2854,7 +2851,7 @@
     </row>
     <row r="31" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31">
         <v>43</v>
